--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1290 +397,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>5.637721450295054</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.4333608753878516</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.451195623913799</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.079294470573873</v>
+      </c>
+      <c r="F2">
         <v>2.231243202408744</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>5.715178003481157</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.2285726461612514</v>
       </c>
-      <c r="H2" t="n">
-        <v>16.69727180164785</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>17.77656627222173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>5.872923482987511</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.5318519834305451</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.354437901917201</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="F3">
         <v>2.078909329151921</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>5.068176720068198</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.1758251124317319</v>
       </c>
-      <c r="H3" t="n">
-        <v>16.08212452998711</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>17.29224257275175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6.21859919770219</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.5121537618220063</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.386690475916066</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.112000363621566</v>
+      </c>
+      <c r="F4">
         <v>2.043066064856199</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>4.816565109852046</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.2989026911339442</v>
       </c>
-      <c r="H4" t="n">
-        <v>16.27597730128245</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>17.38797766490401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6.158016855948073</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.4629082078006597</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.999659587929677</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="F5">
         <v>2.32981217922198</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>3.306895448555137</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.2285726461612514</v>
       </c>
-      <c r="H5" t="n">
-        <v>14.48586492561678</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>15.69598296838142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6.596347916874934</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4530590969963904</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.773721363902457</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.242823935812338</v>
+      </c>
+      <c r="F6">
         <v>2.150595857743367</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>3.989841247713262</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.2285726461612514</v>
       </c>
-      <c r="H6" t="n">
-        <v>16.19213812939166</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>17.434962065204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6.90995062713155</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.472757318604929</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2.644711067906993</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="F7">
         <v>2.087870145225852</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>3.414728995790629</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.2637376686475978</v>
       </c>
-      <c r="H7" t="n">
-        <v>15.79375582330755</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>16.9711679730245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7.854322425063399</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.3545679889536968</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2.838226511900187</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>1.733412331527735</v>
+      </c>
+      <c r="F8">
         <v>1.998261984486545</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>2.012892881729213</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.3340677136202905</v>
       </c>
-      <c r="H8" t="n">
-        <v>15.39233950575333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>17.12575183728106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8.584874193274832</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.2856242133238113</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.451195623913799</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>2.452941978576984</v>
+      </c>
+      <c r="F9">
         <v>1.451652203976773</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>1.545614177042075</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.1054950674590391</v>
       </c>
-      <c r="H9" t="n">
-        <v>14.42445547899033</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>16.87739745756731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8.720293545431096</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.3348697673451581</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1.935154439931946</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>2.616471443815449</v>
+      </c>
+      <c r="F10">
         <v>0.7795909984319704</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.8267238621387841</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H10" t="n">
-        <v>12.64938014700847</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>15.26585159082392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5.630594115971038</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.5220028726262758</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.161092663959167</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>2.158588941147745</v>
+      </c>
+      <c r="F11">
         <v>0.3584326429572277</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.6110567676677968</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.07033004497269275</v>
       </c>
-      <c r="H11" t="n">
-        <v>8.353509108154197</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>10.51209804930194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>4.850151007491511</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.581097537451892</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.9675772199659729</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>1.864235903718507</v>
+      </c>
+      <c r="F12">
         <v>0.4301191715486734</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.5391677361774678</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H12" t="n">
-        <v>7.420860206365036</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>9.285096110083543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.691959179839237</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.3250206565408887</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.8385669239705097</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>1.504471080193884</v>
+      </c>
+      <c r="F13">
         <v>0.2957069304397129</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.3953896731968097</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>5.546643363987159</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>7.051114444181043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2.697696041639288</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.3447188781494274</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.677304053976181</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.7522355400969418</v>
+      </c>
+      <c r="F14">
         <v>0.2957069304397129</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.4313341889419742</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H14" t="n">
-        <v>4.464342604389756</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>5.216578144486698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.689178234791311</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.0886419972384242</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.2902731659897919</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.6868237540015556</v>
+      </c>
+      <c r="F15">
         <v>0.1612946893307525</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.6110567676677968</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.85802736626125</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>3.544851120262805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.186701164948327</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.2068313268896564</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1935154439931945</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.3270589304769311</v>
+      </c>
+      <c r="F16">
         <v>0.3315501947354357</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.3953896731968097</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.349152826249769</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>2.6762117567267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.7661884398315022</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.3053224349323501</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.06450514799773154</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.2419420339961288</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.6470012834129614</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>2.024959340170674</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.4953497355189713</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.2068313268896564</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.2257680179920603</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.1612946893307525</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.8267238621387841</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>1.915967631870225</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.5559320772730897</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1772839944768484</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.1935154439931945</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.2616471443815449</v>
+      </c>
+      <c r="F19">
         <v>0.206098769700406</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.7907793463936195</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1.923609631837158</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>2.185256776218703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.9942631381999495</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1181893296512323</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.4515360359841206</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="F20">
         <v>0.412197539400812</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>1.006446440864606</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>2.982632484100721</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>3.113456056291493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.391220665706688</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.0886419972384242</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.9675772199659729</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="F21">
         <v>0.7347869180623172</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>1.473725145551745</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H21" t="n">
-        <v>5.708699480254667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>6.918817523019313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>4.543675631558905</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.1280384404555016</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.064164735927409</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>3.237883411721618</v>
+      </c>
+      <c r="F22">
         <v>1.263475066424228</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>2.588005133651845</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.1758251124317319</v>
       </c>
-      <c r="H22" t="n">
-        <v>10.76318412044962</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>14.00106753217124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>7.312645016438336</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.137887551259771</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.612628699943288</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>3.205177518673925</v>
+      </c>
+      <c r="F23">
         <v>1.469573836124634</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>3.270950932809971</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.1582426011885587</v>
       </c>
-      <c r="H23" t="n">
-        <v>13.96192863776456</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>17.16710615643849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>8.9768775810956</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.2856242133238113</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.354437901917201</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>1.962353582861587</v>
+      </c>
+      <c r="F24">
         <v>1.80112403086007</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>3.989841247713262</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.3516502248634638</v>
       </c>
-      <c r="H24" t="n">
-        <v>17.75955519977341</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>19.72190878263499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>6.528638240796798</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.502304651017737</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>3.289762547884307</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>1.962353582861587</v>
+      </c>
+      <c r="F25">
         <v>2.025144432708337</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>5.319788330284347</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.4923103148088493</v>
       </c>
-      <c r="H25" t="n">
-        <v>18.15794851750038</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>20.12030210036196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>5.523684101110829</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.3348697673451581</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.515530565876368</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.04658857752618</v>
+      </c>
+      <c r="F26">
         <v>2.177478305965159</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>6.218401223913459</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H26" t="n">
-        <v>18.0161191216154</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>19.06270769914158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>5.755322466641282</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.4136626537793128</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>3.386520269880906</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="F27">
         <v>2.025144432708337</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>5.535455424755336</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.193407623674905</v>
       </c>
-      <c r="H27" t="n">
-        <v>17.30951287144008</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>18.48692502115703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>6.093870847031945</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.3939644321707741</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.451025417878636</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.079294470573873</v>
+      </c>
+      <c r="F28">
         <v>1.989301168412614</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>5.24789929879402</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.3340677136202905</v>
       </c>
-      <c r="H28" t="n">
-        <v>17.51012887790828</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>18.58942334848215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>6.03328850527783</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.3545679889536968</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2.870479085899052</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="F29">
         <v>2.267086466704466</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>3.594451574516451</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H29" t="n">
-        <v>15.36602877875592</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>16.54344092847287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>6.464492231880674</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.3447188781494274</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3.999319175859354</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="F30">
         <v>2.096830961299782</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>4.349286405164906</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.2461551574044246</v>
       </c>
-      <c r="H30" t="n">
-        <v>17.50080280975856</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>18.71092085252321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>6.770967607813272</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.3644170997579661</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>3.80580373186616</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.144706256669259</v>
+      </c>
+      <c r="F31">
         <v>2.034105248782268</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>3.738229637497109</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.281320179890771</v>
       </c>
-      <c r="H31" t="n">
-        <v>16.99484350560754</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>18.1395497622768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>7.697521069935091</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.275775102519542</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>4.096076897855951</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>1.668000545432349</v>
+      </c>
+      <c r="F32">
         <v>1.944497088042961</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>2.192615460455036</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.3692327361066369</v>
       </c>
-      <c r="H32" t="n">
-        <v>16.57571835491521</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>18.24371890034756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>8.413818169498498</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.2166804376939258</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3.515530565876368</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>2.387530192481598</v>
+      </c>
+      <c r="F33">
         <v>1.41580893968105</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>1.689392240022733</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.1230775787022123</v>
       </c>
-      <c r="H33" t="n">
-        <v>15.37430793147479</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>17.76183812395638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>8.545673854492753</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.2560768809110032</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2.773721363902457</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>2.551059657720063</v>
+      </c>
+      <c r="F34">
         <v>0.7616693662841092</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.8986128936291128</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H34" t="n">
-        <v>13.28850189294895</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>15.83956155066902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>5.516556766786814</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.4038135429750435</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1.677133847941019</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>2.093177155052359</v>
+      </c>
+      <c r="F35">
         <v>0.3494718268832971</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.6829457991581259</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.07033004497269275</v>
       </c>
-      <c r="H35" t="n">
-        <v>8.700251828716992</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>10.79342898376935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>4.75393199411732</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.443209986192121</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1.386860681951228</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>1.798824117623121</v>
+      </c>
+      <c r="F36">
         <v>0.4211583554747427</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.5751122519226324</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H36" t="n">
-        <v>7.633020803387565</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>9.431844921010686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>3.617122169437089</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2462277701067338</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1.193345237958033</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>1.47176518714619</v>
+      </c>
+      <c r="F37">
         <v>0.2867461143657822</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.4313341889419742</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>5.774775480809613</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>7.246540667955804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2.644241034209184</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.2659259917152725</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.9675772199659729</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.7195296470492485</v>
+      </c>
+      <c r="F38">
         <v>0.2867461143657822</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.4672787046871387</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H38" t="n">
-        <v>4.649351576186524</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>5.368881223235772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1.653541563171241</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.06894377562988549</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.4192834619852548</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.6541178609538622</v>
+      </c>
+      <c r="F39">
         <v>0.1612946893307525</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.6829457991581259</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.01758251124317319</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.003591800518433</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>3.657709661472295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1.161755494814278</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.1575857728683097</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.2902731659897919</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.3270589304769311</v>
+      </c>
+      <c r="F40">
         <v>0.322589378661505</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.4313341889419742</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.03516502248634638</v>
       </c>
-      <c r="H40" t="n">
-        <v>2.398703023762205</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>2.725761954239136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.7519337711834736</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.2363786593024645</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.09675772199659724</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.2329812179221981</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.7188903149032903</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>2.036941685308023</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.4846587340329501</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1575857728683097</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.3225257399886576</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.1612946893307525</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.8986128936291128</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>2.024677829849783</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.545241075787069</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.137887551259771</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.2902731659897919</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.2616471443815449</v>
+      </c>
+      <c r="F43">
         <v>0.1971379536264753</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.8626683778839483</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>2.033208124547055</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>2.2948552689286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.9728811352279072</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.0886419972384242</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.6450514799773152</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="F44">
         <v>0.4032367233268813</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>1.1142799881001</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>3.224091323870628</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>3.3549148960614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2.34132932543859</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.06894377562988549</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.386860681951228</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="F45">
         <v>0.7168652859144554</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>1.617503208532403</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.05274753372951956</v>
       </c>
-      <c r="H45" t="n">
-        <v>6.184249811196081</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>7.361661960913033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>4.451020285346726</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.09849110804269354</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2.96723680789565</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>3.139765732578539</v>
+      </c>
+      <c r="F46">
         <v>1.227631802128505</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>2.803672228122832</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.193407623674905</v>
       </c>
-      <c r="H46" t="n">
-        <v>11.74145985521131</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>14.88122558778985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>7.166534662796049</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.1083402188469629</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>2.322185327918335</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>3.107059839530845</v>
+      </c>
+      <c r="F47">
         <v>1.433730571828911</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>3.558507058771288</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.1758251124317319</v>
       </c>
-      <c r="H47" t="n">
-        <v>14.76512295259328</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>17.87218279212412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>8.795130555833243</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2166804376939258</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3.386520269880906</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>1.896941796766201</v>
+      </c>
+      <c r="F48">
         <v>1.756319950490416</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>4.349286405164906</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.3868152473498101</v>
       </c>
-      <c r="H48" t="n">
-        <v>18.89075286641321</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>20.7876946631794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>6.396782555802541</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.3841153213665048</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4.741128377833267</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>1.896941796766201</v>
+      </c>
+      <c r="F49">
         <v>1.971379536264753</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>5.787067034971488</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.5450578485383688</v>
       </c>
-      <c r="H49" t="n">
-        <v>19.82553067477692</v>
+      <c r="I49">
+        <v>21.72247247154312</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>5.637721450295054</v>
+        <v>17.34188841554639</v>
       </c>
       <c r="C2">
-        <v>0.4333608753878516</v>
+        <v>1.333037825812821</v>
       </c>
       <c r="D2">
-        <v>2.451195623913799</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="E2">
-        <v>1.079294470573873</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="F2">
-        <v>2.231243202408744</v>
+        <v>6.863405896382787</v>
       </c>
       <c r="G2">
-        <v>5.715178003481157</v>
+        <v>17.58014830728615</v>
       </c>
       <c r="H2">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I2">
-        <v>17.77656627222173</v>
+        <v>54.68152895143491</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>5.872923482987511</v>
+        <v>18.06538059976007</v>
       </c>
       <c r="C3">
-        <v>0.5318519834305451</v>
+        <v>1.636000968043008</v>
       </c>
       <c r="D3">
-        <v>2.354437901917201</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="E3">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F3">
-        <v>2.078909329151921</v>
+        <v>6.394819951649827</v>
       </c>
       <c r="G3">
-        <v>5.068176720068198</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="H3">
-        <v>0.1758251124317319</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I3">
-        <v>17.29224257275175</v>
+        <v>53.19172715344551</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>6.21859919770219</v>
+        <v>19.12869487049838</v>
       </c>
       <c r="C4">
-        <v>0.5121537618220063</v>
+        <v>1.57540833959697</v>
       </c>
       <c r="D4">
-        <v>2.386690475916066</v>
+        <v>7.341568802342575</v>
       </c>
       <c r="E4">
-        <v>1.112000363621566</v>
+        <v>3.420563856159113</v>
       </c>
       <c r="F4">
-        <v>2.043066064856199</v>
+        <v>6.28456443524207</v>
       </c>
       <c r="G4">
-        <v>4.816565109852046</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="H4">
-        <v>0.2989026911339442</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I4">
-        <v>17.38797766490401</v>
+        <v>53.48621266504696</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>6.158016855948073</v>
+        <v>18.94234082304939</v>
       </c>
       <c r="C5">
-        <v>0.4629082078006597</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="D5">
-        <v>1.999659587929677</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="E5">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F5">
-        <v>2.32981217922198</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="G5">
-        <v>3.306895448555137</v>
+        <v>10.17216128471903</v>
       </c>
       <c r="H5">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I5">
-        <v>15.69598296838142</v>
+        <v>48.28155977726453</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>6.596347916874934</v>
+        <v>20.29066716635674</v>
       </c>
       <c r="C6">
-        <v>0.4530590969963904</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="D6">
-        <v>2.773721363902457</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="E6">
-        <v>1.242823935812338</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="F6">
-        <v>2.150595857743367</v>
+        <v>6.615330984465338</v>
       </c>
       <c r="G6">
-        <v>3.989841247713262</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="H6">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I6">
-        <v>17.434962065204</v>
+        <v>53.63073882414462</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>6.90995062713155</v>
+        <v>21.25532341197499</v>
       </c>
       <c r="C7">
-        <v>0.472757318604929</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="D7">
-        <v>2.644711067906993</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="E7">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F7">
-        <v>2.087870145225852</v>
+        <v>6.422383830751765</v>
       </c>
       <c r="G7">
-        <v>3.414728995790629</v>
+        <v>10.50386219617726</v>
       </c>
       <c r="H7">
-        <v>0.2637376686475978</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I7">
-        <v>16.9711679730245</v>
+        <v>52.20408703489286</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>7.854322425063399</v>
+        <v>24.16025415162086</v>
       </c>
       <c r="C8">
-        <v>0.3545679889536968</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="D8">
-        <v>2.838226511900187</v>
+        <v>8.730514251434418</v>
       </c>
       <c r="E8">
-        <v>1.733412331527735</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="F8">
-        <v>1.998261984486545</v>
+        <v>6.146745039732377</v>
       </c>
       <c r="G8">
-        <v>2.012892881729213</v>
+        <v>6.191750347220278</v>
       </c>
       <c r="H8">
-        <v>0.3340677136202905</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="I8">
-        <v>17.12575183728106</v>
+        <v>52.67959405460221</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>8.584874193274832</v>
+        <v>26.40746472379975</v>
       </c>
       <c r="C9">
-        <v>0.2856242133238113</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D9">
-        <v>2.451195623913799</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="E9">
-        <v>2.452941978576984</v>
+        <v>7.545361447409807</v>
       </c>
       <c r="F9">
-        <v>1.451652203976773</v>
+        <v>4.465348414514104</v>
       </c>
       <c r="G9">
-        <v>1.545614177042075</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H9">
-        <v>0.1054950674590391</v>
+        <v>0.3245076409671583</v>
       </c>
       <c r="I9">
-        <v>16.87739745756731</v>
+        <v>51.9156446508439</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>8.720293545431096</v>
+        <v>26.8240208298622</v>
       </c>
       <c r="C10">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D10">
-        <v>1.935154439931946</v>
+        <v>5.952623353250738</v>
       </c>
       <c r="E10">
-        <v>2.616471443815449</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="F10">
-        <v>0.7795909984319704</v>
+        <v>2.398057481868685</v>
       </c>
       <c r="G10">
-        <v>0.8267238621387841</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="H10">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I10">
-        <v>15.26585159082392</v>
+        <v>46.95845603413139</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>5.630594115971038</v>
+        <v>17.31996440996414</v>
       </c>
       <c r="C11">
-        <v>0.5220028726262758</v>
+        <v>1.605704653819989</v>
       </c>
       <c r="D11">
-        <v>1.161092663959167</v>
+        <v>3.571574011950442</v>
       </c>
       <c r="E11">
-        <v>2.158588941147745</v>
+        <v>6.63991807372063</v>
       </c>
       <c r="F11">
-        <v>0.3584326429572277</v>
+        <v>1.102555164077556</v>
       </c>
       <c r="G11">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H11">
-        <v>0.07033004497269275</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="I11">
-        <v>10.51209804930194</v>
+        <v>32.3356932391075</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>4.850151007491511</v>
+        <v>14.91928579870962</v>
       </c>
       <c r="C12">
-        <v>0.581097537451892</v>
+        <v>1.787482539158101</v>
       </c>
       <c r="D12">
-        <v>0.9675772199659729</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="E12">
-        <v>1.864235903718507</v>
+        <v>5.734474700031455</v>
       </c>
       <c r="F12">
-        <v>0.4301191715486734</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="G12">
-        <v>0.5391677361774678</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H12">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I12">
-        <v>9.285096110083543</v>
+        <v>28.56137928919233</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>3.691959179839237</v>
+        <v>11.35663489159675</v>
       </c>
       <c r="C13">
-        <v>0.3250206565408887</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D13">
-        <v>0.8385669239705097</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="E13">
-        <v>1.504471080193884</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="F13">
-        <v>0.2957069304397129</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="G13">
-        <v>0.3953896731968097</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="I13">
-        <v>7.051114444181043</v>
+        <v>21.68954975415386</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.697696041639288</v>
+        <v>8.298236112875225</v>
       </c>
       <c r="C14">
-        <v>0.3447188781494274</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="D14">
-        <v>0.677304053976181</v>
+        <v>2.083418173637758</v>
       </c>
       <c r="E14">
-        <v>0.7522355400969418</v>
+        <v>2.313910843872341</v>
       </c>
       <c r="F14">
-        <v>0.2957069304397129</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="G14">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H14">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I14">
-        <v>5.216578144486698</v>
+        <v>16.04643239121574</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.689178234791311</v>
+        <v>5.195989322989248</v>
       </c>
       <c r="C15">
-        <v>0.0886419972384242</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D15">
-        <v>0.2902731659897919</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E15">
-        <v>0.6868237540015556</v>
+        <v>2.112701205274746</v>
       </c>
       <c r="F15">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G15">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H15">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I15">
-        <v>3.544851120262805</v>
+        <v>10.90412378818483</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.186701164948327</v>
+        <v>3.65034692944181</v>
       </c>
       <c r="C16">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D16">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E16">
-        <v>0.3270589304769311</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="F16">
-        <v>0.3315501947354357</v>
+        <v>1.01986352677174</v>
       </c>
       <c r="G16">
-        <v>0.3953896731968097</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="H16">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I16">
-        <v>2.6762117567267</v>
+        <v>8.23214947221255</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.7661884398315022</v>
+        <v>2.356830600090057</v>
       </c>
       <c r="C17">
-        <v>0.3053224349323501</v>
+        <v>0.9391857409135788</v>
       </c>
       <c r="D17">
-        <v>0.06450514799773154</v>
+        <v>0.1984207784416913</v>
       </c>
       <c r="F17">
-        <v>0.2419420339961288</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="G17">
-        <v>0.6470012834129614</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="I17">
-        <v>2.024959340170674</v>
+        <v>6.228867323947053</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.4953497355189713</v>
+        <v>1.5237183879652</v>
       </c>
       <c r="C18">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D18">
-        <v>0.2257680179920603</v>
+        <v>0.6944727245459195</v>
       </c>
       <c r="F18">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G18">
-        <v>0.8267238621387841</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="I18">
-        <v>1.915967631870225</v>
+        <v>5.893603856209168</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.5559320772730897</v>
+        <v>1.710072435414181</v>
       </c>
       <c r="C19">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D19">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E19">
-        <v>0.2616471443815449</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="F19">
-        <v>0.206098769700406</v>
+        <v>0.6339692193445948</v>
       </c>
       <c r="G19">
-        <v>0.7907793463936195</v>
+        <v>2.432473350693681</v>
       </c>
       <c r="I19">
-        <v>2.185256776218703</v>
+        <v>6.721949551182245</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.9942631381999495</v>
+        <v>3.058398778721517</v>
       </c>
       <c r="C20">
-        <v>0.1181893296512323</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="D20">
-        <v>0.4515360359841206</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="E20">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F20">
-        <v>0.412197539400812</v>
+        <v>1.26793843868919</v>
       </c>
       <c r="G20">
-        <v>1.006446440864606</v>
+        <v>3.095875173610139</v>
       </c>
       <c r="I20">
-        <v>3.113456056291493</v>
+        <v>9.577132887984099</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>2.391220665706688</v>
+        <v>7.355503872839206</v>
       </c>
       <c r="C21">
-        <v>0.0886419972384242</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D21">
-        <v>0.9675772199659729</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="E21">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F21">
-        <v>0.7347869180623172</v>
+        <v>2.260238086358991</v>
       </c>
       <c r="G21">
-        <v>1.473725145551745</v>
+        <v>4.533245789929132</v>
       </c>
       <c r="H21">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I21">
-        <v>6.918817523019313</v>
+        <v>21.28259838829895</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>4.543675631558905</v>
+        <v>13.9765535586736</v>
       </c>
       <c r="C22">
-        <v>0.1280384404555016</v>
+        <v>0.3938520848992426</v>
       </c>
       <c r="D22">
-        <v>2.064164735927409</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="E22">
-        <v>3.237883411721618</v>
+        <v>9.959877110580949</v>
       </c>
       <c r="F22">
-        <v>1.263475066424228</v>
+        <v>3.886506953373386</v>
       </c>
       <c r="G22">
-        <v>2.588005133651845</v>
+        <v>7.960821874997503</v>
       </c>
       <c r="H22">
-        <v>0.1758251124317319</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I22">
-        <v>14.00106753217124</v>
+        <v>43.0679225609374</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>7.312645016438336</v>
+        <v>22.49402972737116</v>
       </c>
       <c r="C23">
-        <v>0.137887551259771</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="D23">
-        <v>1.612628699943288</v>
+        <v>4.960519461042282</v>
       </c>
       <c r="E23">
-        <v>3.205177518673925</v>
+        <v>9.859272291282149</v>
       </c>
       <c r="F23">
-        <v>1.469573836124634</v>
+        <v>4.520476172717982</v>
       </c>
       <c r="G23">
-        <v>3.270950932809971</v>
+        <v>10.06159431423296</v>
       </c>
       <c r="H23">
-        <v>0.1582426011885587</v>
+        <v>0.4867614614507375</v>
       </c>
       <c r="I23">
-        <v>17.16710615643849</v>
+        <v>52.80680182721953</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>8.9768775810956</v>
+        <v>27.61328503082256</v>
       </c>
       <c r="C24">
-        <v>0.2856242133238113</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D24">
-        <v>2.354437901917201</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="E24">
-        <v>1.962353582861587</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="F24">
-        <v>1.80112403086007</v>
+        <v>5.54033969948972</v>
       </c>
       <c r="G24">
-        <v>3.989841247713262</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="H24">
-        <v>0.3516502248634638</v>
+        <v>1.081692136557195</v>
       </c>
       <c r="I24">
-        <v>19.72190878263499</v>
+        <v>60.66549127434108</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>6.528638240796798</v>
+        <v>20.0823891133255</v>
       </c>
       <c r="C25">
-        <v>0.502304651017737</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="D25">
-        <v>3.289762547884307</v>
+        <v>10.11945970052625</v>
       </c>
       <c r="E25">
-        <v>1.962353582861587</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="F25">
-        <v>2.025144432708337</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="G25">
-        <v>5.319788330284347</v>
+        <v>16.36391163193931</v>
       </c>
       <c r="H25">
-        <v>0.4923103148088493</v>
+        <v>1.514368991180072</v>
       </c>
       <c r="I25">
-        <v>20.12030210036196</v>
+        <v>61.89096729731114</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>5.523684101110829</v>
+        <v>16.99110432623065</v>
       </c>
       <c r="C26">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D26">
-        <v>3.515530565876368</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="E26">
-        <v>1.04658857752618</v>
+        <v>3.219354217561519</v>
       </c>
       <c r="F26">
-        <v>2.177478305965159</v>
+        <v>6.698022621771155</v>
       </c>
       <c r="G26">
-        <v>6.218401223913459</v>
+        <v>19.12808589409122</v>
       </c>
       <c r="H26">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I26">
-        <v>19.06270769914158</v>
+        <v>58.63775866389939</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>5.755322466641282</v>
+        <v>17.70363450765322</v>
       </c>
       <c r="C27">
-        <v>0.4136626537793128</v>
+        <v>1.272445197366784</v>
       </c>
       <c r="D27">
-        <v>3.386520269880906</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="E27">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F27">
-        <v>2.025144432708337</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="G27">
-        <v>5.535455424755336</v>
+        <v>17.02731345485577</v>
       </c>
       <c r="H27">
-        <v>0.193407623674905</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="I27">
-        <v>18.48692502115703</v>
+        <v>56.86662487496592</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>6.093870847031945</v>
+        <v>18.7450247728093</v>
       </c>
       <c r="C28">
-        <v>0.3939644321707741</v>
+        <v>1.211852568920746</v>
       </c>
       <c r="D28">
-        <v>3.451025417878636</v>
+        <v>10.61551164663048</v>
       </c>
       <c r="E28">
-        <v>1.079294470573873</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="F28">
-        <v>1.989301168412614</v>
+        <v>6.119181160630438</v>
       </c>
       <c r="G28">
-        <v>5.24789929879402</v>
+        <v>16.14277769096715</v>
       </c>
       <c r="H28">
-        <v>0.3340677136202905</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="I28">
-        <v>18.58942334848215</v>
+        <v>57.18191440654778</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>6.03328850527783</v>
+        <v>18.55867072536032</v>
       </c>
       <c r="C29">
-        <v>0.3545679889536968</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="D29">
-        <v>2.870479085899052</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="E29">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F29">
-        <v>2.267086466704466</v>
+        <v>6.973661412790544</v>
       </c>
       <c r="G29">
-        <v>3.594451574516451</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="H29">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I29">
-        <v>16.54344092847287</v>
+        <v>50.88837912978919</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>6.464492231880674</v>
+        <v>19.88507306308541</v>
       </c>
       <c r="C30">
-        <v>0.3447188781494274</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="D30">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E30">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F30">
-        <v>2.096830961299782</v>
+        <v>6.449947709853703</v>
       </c>
       <c r="G30">
-        <v>4.349286405164906</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="H30">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I30">
-        <v>18.71092085252321</v>
+        <v>57.55564627259042</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>6.770967607813272</v>
+        <v>20.82780530312144</v>
       </c>
       <c r="C31">
-        <v>0.3644170997579661</v>
+        <v>1.12096362625169</v>
       </c>
       <c r="D31">
-        <v>3.80580373186616</v>
+        <v>11.70682592805978</v>
       </c>
       <c r="E31">
-        <v>1.144706256669259</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="F31">
-        <v>2.034105248782268</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="G31">
-        <v>3.738229637497109</v>
+        <v>11.49896493055195</v>
       </c>
       <c r="H31">
-        <v>0.281320179890771</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="I31">
-        <v>18.1395497622768</v>
+        <v>55.79808272882865</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>7.697521069935091</v>
+        <v>23.67792602881174</v>
       </c>
       <c r="C32">
-        <v>0.275775102519542</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D32">
-        <v>4.096076897855951</v>
+        <v>12.5997194310474</v>
       </c>
       <c r="E32">
-        <v>1.668000545432349</v>
+        <v>5.130845784238669</v>
       </c>
       <c r="F32">
-        <v>1.944497088042961</v>
+        <v>5.981361765120742</v>
       </c>
       <c r="G32">
-        <v>2.192615460455036</v>
+        <v>6.744585199650662</v>
       </c>
       <c r="H32">
-        <v>0.3692327361066369</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I32">
-        <v>18.24371890034756</v>
+        <v>56.11851175049879</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>8.413818169498498</v>
+        <v>25.88128858982616</v>
       </c>
       <c r="C33">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D33">
-        <v>3.515530565876368</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="E33">
-        <v>2.387530192481598</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F33">
-        <v>1.41580893968105</v>
+        <v>4.355092898106347</v>
       </c>
       <c r="G33">
-        <v>1.689392240022733</v>
+        <v>5.196647612845593</v>
       </c>
       <c r="H33">
-        <v>0.1230775787022123</v>
+        <v>0.378592247795018</v>
       </c>
       <c r="I33">
-        <v>17.76183812395638</v>
+        <v>54.63622449536393</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>8.545673854492753</v>
+        <v>26.28688269309748</v>
       </c>
       <c r="C34">
-        <v>0.2560768809110032</v>
+        <v>0.7877041697984852</v>
       </c>
       <c r="D34">
-        <v>2.773721363902457</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="E34">
-        <v>2.551059657720063</v>
+        <v>7.847175905306202</v>
       </c>
       <c r="F34">
-        <v>0.7616693662841092</v>
+        <v>2.342929723664807</v>
       </c>
       <c r="G34">
-        <v>0.8986128936291128</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="H34">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I34">
-        <v>15.83956155066902</v>
+        <v>48.72321404749519</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>5.516556766786814</v>
+        <v>16.96918032064842</v>
       </c>
       <c r="C35">
-        <v>0.4038135429750435</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D35">
-        <v>1.677133847941019</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="E35">
-        <v>2.093177155052359</v>
+        <v>6.438708435123038</v>
       </c>
       <c r="F35">
-        <v>0.3494718268832971</v>
+        <v>1.074991284975617</v>
       </c>
       <c r="G35">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H35">
-        <v>0.07033004497269275</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="I35">
-        <v>10.79342898376935</v>
+        <v>33.20108002992171</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>4.75393199411732</v>
+        <v>14.62331172334948</v>
       </c>
       <c r="C36">
-        <v>0.443209986192121</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="D36">
-        <v>1.386860681951228</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="E36">
-        <v>1.798824117623121</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="F36">
-        <v>0.4211583554747427</v>
+        <v>1.295502317791129</v>
       </c>
       <c r="G36">
-        <v>0.5751122519226324</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="H36">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I36">
-        <v>9.431844921010686</v>
+        <v>29.01278532736747</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>3.617122169437089</v>
+        <v>11.1264328329833</v>
       </c>
       <c r="C37">
-        <v>0.2462277701067338</v>
+        <v>0.7574078555754664</v>
       </c>
       <c r="D37">
-        <v>1.193345237958033</v>
+        <v>3.670784401171288</v>
       </c>
       <c r="E37">
-        <v>1.47176518714619</v>
+        <v>4.527216868445885</v>
       </c>
       <c r="F37">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G37">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="I37">
-        <v>7.246540667955804</v>
+        <v>22.29068973527091</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>2.644241034209184</v>
+        <v>8.133806071008475</v>
       </c>
       <c r="C38">
-        <v>0.2659259917152725</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D38">
-        <v>0.9675772199659729</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="E38">
-        <v>0.7195296470492485</v>
+        <v>2.213306024573543</v>
       </c>
       <c r="F38">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G38">
-        <v>0.4672787046871387</v>
+        <v>1.437370616318993</v>
       </c>
       <c r="H38">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I38">
-        <v>5.368881223235772</v>
+        <v>16.51492361063779</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.653541563171241</v>
+        <v>5.086369295078079</v>
       </c>
       <c r="C39">
-        <v>0.06894377562988549</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="D39">
-        <v>0.4192834619852548</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="E39">
-        <v>0.6541178609538622</v>
+        <v>2.012096385975949</v>
       </c>
       <c r="F39">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G39">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H39">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I39">
-        <v>3.657709661472295</v>
+        <v>11.25128181038436</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.161755494814278</v>
+        <v>3.573612909903994</v>
       </c>
       <c r="C40">
-        <v>0.1575857728683097</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="D40">
-        <v>0.2902731659897919</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E40">
-        <v>0.3270589304769311</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="F40">
-        <v>0.322589378661505</v>
+        <v>0.9922996476698008</v>
       </c>
       <c r="G40">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H40">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I40">
-        <v>2.725761954239136</v>
+        <v>8.384568140606314</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.7519337711834736</v>
+        <v>2.312982588925591</v>
       </c>
       <c r="C41">
-        <v>0.2363786593024645</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="D41">
-        <v>0.09675772199659724</v>
+        <v>0.2976311676625368</v>
       </c>
       <c r="F41">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G41">
-        <v>0.7188903149032903</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="I41">
-        <v>2.036941685308023</v>
+        <v>6.265725564312515</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.4846587340329501</v>
+        <v>1.490832379591851</v>
       </c>
       <c r="C42">
-        <v>0.1575857728683097</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="D42">
-        <v>0.3225257399886576</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="F42">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G42">
-        <v>0.8986128936291128</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="I42">
-        <v>2.024677829849783</v>
+        <v>6.228001385355416</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.545241075787069</v>
+        <v>1.677186427040832</v>
       </c>
       <c r="C43">
-        <v>0.137887551259771</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="D43">
-        <v>0.2902731659897919</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E43">
-        <v>0.2616471443815449</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="F43">
-        <v>0.1971379536264753</v>
+        <v>0.6064053402426559</v>
       </c>
       <c r="G43">
-        <v>0.8626683778839483</v>
+        <v>2.653607291665834</v>
       </c>
       <c r="I43">
-        <v>2.2948552689286</v>
+        <v>7.059079515449573</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.9728811352279072</v>
+        <v>2.992626761974817</v>
       </c>
       <c r="C44">
-        <v>0.0886419972384242</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D44">
-        <v>0.6450514799773152</v>
+        <v>1.984207784416913</v>
       </c>
       <c r="E44">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F44">
-        <v>0.4032367233268813</v>
+        <v>1.240374559587251</v>
       </c>
       <c r="G44">
-        <v>1.1142799881001</v>
+        <v>3.427576085068368</v>
       </c>
       <c r="I44">
-        <v>3.3549148960614</v>
+        <v>10.3198712962497</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>2.34132932543859</v>
+        <v>7.202035833763572</v>
       </c>
       <c r="C45">
-        <v>0.06894377562988549</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="D45">
-        <v>1.386860681951228</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="E45">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F45">
-        <v>0.7168652859144554</v>
+        <v>2.205110328155112</v>
       </c>
       <c r="G45">
-        <v>1.617503208532403</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="H45">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I45">
-        <v>7.361661960913033</v>
+        <v>22.6448080850899</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>4.451020285346726</v>
+        <v>13.69154148610457</v>
       </c>
       <c r="C46">
-        <v>0.09849110804269354</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D46">
-        <v>2.96723680789565</v>
+        <v>9.1273558083178</v>
       </c>
       <c r="E46">
-        <v>3.139765732578539</v>
+        <v>9.658062652684553</v>
       </c>
       <c r="F46">
-        <v>1.227631802128505</v>
+        <v>3.776251436965631</v>
       </c>
       <c r="G46">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H46">
-        <v>0.193407623674905</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="I46">
-        <v>14.88122558778985</v>
+        <v>45.77532889932315</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>7.166534662796049</v>
+        <v>22.04458761293538</v>
       </c>
       <c r="C47">
-        <v>0.1083402188469629</v>
+        <v>0.3332594564532053</v>
       </c>
       <c r="D47">
-        <v>2.322185327918335</v>
+        <v>7.143148023900884</v>
       </c>
       <c r="E47">
-        <v>3.107059839530845</v>
+        <v>9.557457833385758</v>
       </c>
       <c r="F47">
-        <v>1.433730571828911</v>
+        <v>4.410220656310225</v>
       </c>
       <c r="G47">
-        <v>3.558507058771288</v>
+        <v>10.94613007812157</v>
       </c>
       <c r="H47">
-        <v>0.1758251124317319</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I47">
-        <v>17.87218279212412</v>
+        <v>54.97564972938561</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>8.795130555833243</v>
+        <v>27.05422288847565</v>
       </c>
       <c r="C48">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D48">
-        <v>3.386520269880906</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="E48">
-        <v>1.896941796766201</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="F48">
-        <v>1.756319950490416</v>
+        <v>5.402520303980027</v>
       </c>
       <c r="G48">
-        <v>4.349286405164906</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="H48">
-        <v>0.3868152473498101</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="I48">
-        <v>20.7876946631794</v>
+        <v>63.94389727190929</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>6.396782555802541</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="C49">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D49">
-        <v>4.741128377833267</v>
+        <v>14.58392721546431</v>
       </c>
       <c r="E49">
-        <v>1.896941796766201</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="F49">
-        <v>1.971379536264753</v>
+        <v>6.06405340242656</v>
       </c>
       <c r="G49">
-        <v>5.787067034971488</v>
+        <v>17.8012822482583</v>
       </c>
       <c r="H49">
-        <v>0.5450578485383688</v>
+        <v>1.676622811663651</v>
       </c>
       <c r="I49">
-        <v>21.72247247154312</v>
+        <v>66.819316461895</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>17.34188841554639</v>
+        <v>5.423359417964442</v>
       </c>
       <c r="C2">
-        <v>1.333037825812821</v>
+        <v>0.4168832755632184</v>
       </c>
       <c r="D2">
-        <v>7.539989580784269</v>
+        <v>2.357994269392361</v>
       </c>
       <c r="E2">
-        <v>3.319959036860315</v>
+        <v>1.038256658004524</v>
       </c>
       <c r="F2">
-        <v>6.863405896382787</v>
+        <v>2.146405057830464</v>
       </c>
       <c r="G2">
-        <v>17.58014830728615</v>
+        <v>5.497870855059822</v>
       </c>
       <c r="H2">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I2">
-        <v>54.68152895143491</v>
+        <v>17.10065120483687</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>18.06538059976007</v>
+        <v>5.649618407588748</v>
       </c>
       <c r="C3">
-        <v>1.636000968043008</v>
+        <v>0.5116294745548591</v>
       </c>
       <c r="D3">
-        <v>7.242358413121732</v>
+        <v>2.264915548232136</v>
       </c>
       <c r="E3">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="F3">
-        <v>6.394819951649827</v>
+        <v>1.99986334705489</v>
       </c>
       <c r="G3">
-        <v>15.58994283853677</v>
+        <v>4.875470380902106</v>
       </c>
       <c r="H3">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="I3">
-        <v>53.19172715344551</v>
+        <v>16.63474285515663</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>19.12869487049838</v>
+        <v>5.982150559006291</v>
       </c>
       <c r="C4">
-        <v>1.57540833959697</v>
+        <v>0.4926802347565309</v>
       </c>
       <c r="D4">
-        <v>7.341568802342575</v>
+        <v>2.295941788618877</v>
       </c>
       <c r="E4">
-        <v>3.420563856159113</v>
+        <v>1.069718980974357</v>
       </c>
       <c r="F4">
-        <v>6.28456443524207</v>
+        <v>1.965382944519461</v>
       </c>
       <c r="G4">
-        <v>14.81597404513424</v>
+        <v>4.633425752062993</v>
       </c>
       <c r="H4">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="I4">
-        <v>53.48621266504696</v>
+        <v>16.72683782973656</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>18.94234082304939</v>
+        <v>5.923871728345484</v>
       </c>
       <c r="C5">
-        <v>1.423926768481877</v>
+        <v>0.4453071352607106</v>
       </c>
       <c r="D5">
-        <v>6.151044131692429</v>
+        <v>1.923626903977979</v>
       </c>
       <c r="E5">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="F5">
-        <v>7.166608566504115</v>
+        <v>2.241226164802893</v>
       </c>
       <c r="G5">
-        <v>10.17216128471903</v>
+        <v>3.181157979028325</v>
       </c>
       <c r="H5">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I5">
-        <v>48.28155977726453</v>
+        <v>15.09917753232129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>20.29066716635674</v>
+        <v>6.345536209008966</v>
       </c>
       <c r="C6">
-        <v>1.393630454258859</v>
+        <v>0.4358325153615465</v>
       </c>
       <c r="D6">
-        <v>8.532093472992724</v>
+        <v>2.668256673259777</v>
       </c>
       <c r="E6">
-        <v>3.822983133354303</v>
+        <v>1.195568272853694</v>
       </c>
       <c r="F6">
-        <v>6.615330984465338</v>
+        <v>2.068824152125748</v>
       </c>
       <c r="G6">
-        <v>12.27293372395448</v>
+        <v>3.838136257305913</v>
       </c>
       <c r="H6">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I6">
-        <v>53.63073882414462</v>
+        <v>16.77203575093768</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>21.25532341197499</v>
+        <v>6.647214861841377</v>
       </c>
       <c r="C7">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="D7">
-        <v>8.135251916109343</v>
+        <v>2.54415171171281</v>
       </c>
       <c r="E7">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F7">
-        <v>6.422383830751765</v>
+        <v>2.008483447688747</v>
       </c>
       <c r="G7">
-        <v>10.50386219617726</v>
+        <v>3.284891391387944</v>
       </c>
       <c r="H7">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="I7">
-        <v>52.20408703489286</v>
+        <v>16.32587641511482</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>24.16025415162086</v>
+        <v>7.55567898684806</v>
       </c>
       <c r="C8">
-        <v>1.090667312028672</v>
+        <v>0.3410863163699059</v>
       </c>
       <c r="D8">
-        <v>8.730514251434418</v>
+        <v>2.730309154033259</v>
       </c>
       <c r="E8">
-        <v>5.332055422836265</v>
+        <v>1.667503117401205</v>
       </c>
       <c r="F8">
-        <v>6.146745039732377</v>
+        <v>1.922282441350174</v>
       </c>
       <c r="G8">
-        <v>6.191750347220278</v>
+        <v>1.936357030712893</v>
       </c>
       <c r="H8">
-        <v>1.027607529729335</v>
+        <v>0.321365519186059</v>
       </c>
       <c r="I8">
-        <v>52.67959405460221</v>
+        <v>16.47458256590156</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>26.40746472379975</v>
+        <v>8.258453121287195</v>
       </c>
       <c r="C9">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="D9">
-        <v>7.539989580784269</v>
+        <v>2.357994269392361</v>
       </c>
       <c r="E9">
-        <v>7.545361447409807</v>
+        <v>2.359674222737554</v>
       </c>
       <c r="F9">
-        <v>4.465348414514104</v>
+        <v>1.39645630268488</v>
       </c>
       <c r="G9">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="H9">
-        <v>0.3245076409671583</v>
+        <v>0.1014838481640186</v>
       </c>
       <c r="I9">
-        <v>51.9156446508439</v>
+        <v>16.23567131849631</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>26.8240208298622</v>
+        <v>8.388723448646646</v>
       </c>
       <c r="C10">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D10">
-        <v>5.952623353250738</v>
+        <v>1.861574423204495</v>
       </c>
       <c r="E10">
-        <v>8.048385543903795</v>
+        <v>2.516985837586724</v>
       </c>
       <c r="F10">
-        <v>2.398057481868685</v>
+        <v>0.7499487551455836</v>
       </c>
       <c r="G10">
-        <v>2.543040321179757</v>
+        <v>0.7952894947570812</v>
       </c>
       <c r="H10">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I10">
-        <v>46.95845603413139</v>
+        <v>14.68540095999412</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>17.31996440996414</v>
+        <v>5.416503084945527</v>
       </c>
       <c r="C11">
-        <v>1.605704653819989</v>
+        <v>0.5021548546556949</v>
       </c>
       <c r="D11">
-        <v>3.571574011950442</v>
+        <v>1.116944653922697</v>
       </c>
       <c r="E11">
-        <v>6.63991807372063</v>
+        <v>2.076513316009048</v>
       </c>
       <c r="F11">
-        <v>1.102555164077556</v>
+        <v>0.3448040253542914</v>
       </c>
       <c r="G11">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="H11">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="I11">
-        <v>32.3356932391075</v>
+        <v>10.11239850370111</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>14.91928579870962</v>
+        <v>4.665734619373961</v>
       </c>
       <c r="C12">
-        <v>1.787482539158101</v>
+        <v>0.5590025740506792</v>
       </c>
       <c r="D12">
-        <v>2.976311676625369</v>
+        <v>0.9307872116022475</v>
       </c>
       <c r="E12">
-        <v>5.734474700031455</v>
+        <v>1.793352409280542</v>
       </c>
       <c r="F12">
-        <v>1.323066196893068</v>
+        <v>0.4137648304251497</v>
       </c>
       <c r="G12">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H12">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I12">
-        <v>28.56137928919233</v>
+        <v>8.932050630612684</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>11.35663489159675</v>
+        <v>3.551580503799724</v>
       </c>
       <c r="C13">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="D13">
-        <v>2.579470119741985</v>
+        <v>0.8066822500552815</v>
       </c>
       <c r="E13">
-        <v>4.627821687744682</v>
+        <v>1.447266856612366</v>
       </c>
       <c r="F13">
-        <v>0.9096080103639841</v>
+        <v>0.2844633209172904</v>
       </c>
       <c r="G13">
-        <v>1.21623667534684</v>
+        <v>0.3803558453186041</v>
       </c>
       <c r="I13">
-        <v>21.68954975415386</v>
+        <v>6.783011233375681</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>8.298236112875225</v>
+        <v>2.595122047660608</v>
       </c>
       <c r="C14">
-        <v>1.060370997805653</v>
+        <v>0.3316116964707419</v>
       </c>
       <c r="D14">
-        <v>2.083418173637758</v>
+        <v>0.6515510481215732</v>
       </c>
       <c r="E14">
-        <v>2.313910843872341</v>
+        <v>0.723633428306183</v>
       </c>
       <c r="F14">
-        <v>0.9096080103639841</v>
+        <v>0.2844633209172904</v>
       </c>
       <c r="G14">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="H14">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I14">
-        <v>16.04643239121574</v>
+        <v>5.018229165608877</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>5.195989322989248</v>
+        <v>1.624950925483657</v>
       </c>
       <c r="C15">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="D15">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="E15">
-        <v>2.112701205274746</v>
+        <v>0.6607087823665151</v>
       </c>
       <c r="F15">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="G15">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="H15">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I15">
-        <v>10.90412378818483</v>
+        <v>3.4100659065646</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>3.65034692944181</v>
+        <v>1.141579447649911</v>
       </c>
       <c r="C16">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="D16">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="E16">
-        <v>1.006048192987974</v>
+        <v>0.3146232296983406</v>
       </c>
       <c r="F16">
-        <v>1.01986352677174</v>
+        <v>0.3189437234527195</v>
       </c>
       <c r="G16">
-        <v>1.21623667534684</v>
+        <v>0.3803558453186041</v>
       </c>
       <c r="H16">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I16">
-        <v>8.23214947221255</v>
+        <v>2.574454655710475</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.356830600090057</v>
+        <v>0.7370557995337262</v>
       </c>
       <c r="C17">
-        <v>0.9391857409135788</v>
+        <v>0.2937132168740857</v>
       </c>
       <c r="D17">
-        <v>0.1984207784416913</v>
+        <v>0.06205248077348318</v>
       </c>
       <c r="F17">
-        <v>0.7442247357523505</v>
+        <v>0.2327427171141467</v>
       </c>
       <c r="G17">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="I17">
-        <v>6.228867323947053</v>
+        <v>1.947964688453158</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.5237183879652</v>
+        <v>0.4765151448148277</v>
       </c>
       <c r="C18">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="D18">
-        <v>0.6944727245459195</v>
+        <v>0.2171836827071911</v>
       </c>
       <c r="F18">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="G18">
-        <v>2.543040321179757</v>
+        <v>0.7952894947570812</v>
       </c>
       <c r="I18">
-        <v>5.893603856209168</v>
+        <v>1.843117151570976</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.710072435414181</v>
+        <v>0.534793975475634</v>
       </c>
       <c r="C19">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D19">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="E19">
-        <v>0.8048385543903798</v>
+        <v>0.2516985837586725</v>
       </c>
       <c r="F19">
-        <v>0.6339692193445948</v>
+        <v>0.1982623145787175</v>
       </c>
       <c r="G19">
-        <v>2.432473350693681</v>
+        <v>0.7607116906372081</v>
       </c>
       <c r="I19">
-        <v>6.721949551182245</v>
+        <v>2.102167164955635</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>3.058398778721517</v>
+        <v>0.9564584561391145</v>
       </c>
       <c r="C20">
-        <v>0.3635557706762239</v>
+        <v>0.1136954387899687</v>
       </c>
       <c r="D20">
-        <v>1.388945449091839</v>
+        <v>0.4343673654143823</v>
       </c>
       <c r="E20">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="F20">
-        <v>1.26793843868919</v>
+        <v>0.3965246291574351</v>
       </c>
       <c r="G20">
-        <v>3.095875173610139</v>
+        <v>0.9681785153564464</v>
       </c>
       <c r="I20">
-        <v>9.577132887984099</v>
+        <v>2.995073696736683</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>7.355503872839206</v>
+        <v>2.300299727847118</v>
       </c>
       <c r="C21">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="D21">
-        <v>2.976311676625369</v>
+        <v>0.9307872116022475</v>
       </c>
       <c r="E21">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="F21">
-        <v>2.260238086358991</v>
+        <v>0.7068482519762973</v>
       </c>
       <c r="G21">
-        <v>4.533245789929132</v>
+        <v>1.417689968914797</v>
       </c>
       <c r="H21">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I21">
-        <v>21.28259838829895</v>
+        <v>6.655744613398805</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>13.9765535586736</v>
+        <v>4.370912299560471</v>
       </c>
       <c r="C22">
-        <v>0.3938520848992426</v>
+        <v>0.1231700586891327</v>
       </c>
       <c r="D22">
-        <v>6.34946491013412</v>
+        <v>1.985679384751462</v>
       </c>
       <c r="E22">
-        <v>9.959877110580949</v>
+        <v>3.114769974013572</v>
       </c>
       <c r="F22">
-        <v>3.886506953373386</v>
+        <v>1.215434189373877</v>
       </c>
       <c r="G22">
-        <v>7.960821874997503</v>
+        <v>2.489601896630863</v>
       </c>
       <c r="H22">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="I22">
-        <v>43.0679225609374</v>
+        <v>13.46870754995941</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>22.49402972737116</v>
+        <v>7.034597677410261</v>
       </c>
       <c r="C23">
-        <v>0.4241483991222612</v>
+        <v>0.1326446785882968</v>
       </c>
       <c r="D23">
-        <v>4.960519461042282</v>
+        <v>1.55131201933708</v>
       </c>
       <c r="E23">
-        <v>9.859272291282149</v>
+        <v>3.083307651043738</v>
       </c>
       <c r="F23">
-        <v>4.520476172717982</v>
+        <v>1.413696503952595</v>
       </c>
       <c r="G23">
-        <v>10.06159431423296</v>
+        <v>3.146580174908451</v>
       </c>
       <c r="H23">
-        <v>0.4867614614507375</v>
+        <v>0.1522257722460279</v>
       </c>
       <c r="I23">
-        <v>52.80680182721953</v>
+        <v>16.51436447748645</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>27.61328503082256</v>
+        <v>8.635551437327704</v>
       </c>
       <c r="C24">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="D24">
-        <v>7.242358413121732</v>
+        <v>2.264915548232136</v>
       </c>
       <c r="E24">
-        <v>6.036289157927848</v>
+        <v>1.887739378190043</v>
       </c>
       <c r="F24">
-        <v>5.54033969948972</v>
+        <v>1.732640227405314</v>
       </c>
       <c r="G24">
-        <v>12.27293372395448</v>
+        <v>3.838136257305913</v>
       </c>
       <c r="H24">
-        <v>1.081692136557195</v>
+        <v>0.3382794938800621</v>
       </c>
       <c r="I24">
-        <v>60.66549127434108</v>
+        <v>18.97202631941693</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>20.0823891133255</v>
+        <v>6.280401045329238</v>
       </c>
       <c r="C25">
-        <v>1.545112025373952</v>
+        <v>0.4832056148573668</v>
       </c>
       <c r="D25">
-        <v>10.11945970052625</v>
+        <v>3.164676519447643</v>
       </c>
       <c r="E25">
-        <v>6.036289157927848</v>
+        <v>1.887739378190043</v>
       </c>
       <c r="F25">
-        <v>6.229436677038192</v>
+        <v>1.948142743251746</v>
       </c>
       <c r="G25">
-        <v>16.36391163193931</v>
+        <v>5.117515009741216</v>
       </c>
       <c r="H25">
-        <v>1.514368991180072</v>
+        <v>0.4735912914320868</v>
       </c>
       <c r="I25">
-        <v>61.89096729731114</v>
+        <v>19.35527160224934</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>16.99110432623065</v>
+        <v>5.313658089661748</v>
       </c>
       <c r="C26">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D26">
-        <v>10.81393242507217</v>
+        <v>3.381860202154833</v>
       </c>
       <c r="E26">
-        <v>3.219354217561519</v>
+        <v>1.00679433503469</v>
       </c>
       <c r="F26">
-        <v>6.698022621771155</v>
+        <v>2.09468445402732</v>
       </c>
       <c r="G26">
-        <v>19.12808589409122</v>
+        <v>5.981960112738046</v>
       </c>
       <c r="H26">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I26">
-        <v>58.63775866389939</v>
+        <v>18.33788991590426</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>17.70363450765322</v>
+        <v>5.536488912776594</v>
       </c>
       <c r="C27">
-        <v>1.272445197366784</v>
+        <v>0.3979340357648903</v>
       </c>
       <c r="D27">
-        <v>10.4170908681888</v>
+        <v>3.257755240607866</v>
       </c>
       <c r="E27">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F27">
-        <v>6.229436677038192</v>
+        <v>1.948142743251746</v>
       </c>
       <c r="G27">
-        <v>17.02731345485577</v>
+        <v>5.324981834460457</v>
       </c>
       <c r="H27">
-        <v>0.5949306751064569</v>
+        <v>0.1860537216340341</v>
       </c>
       <c r="I27">
-        <v>56.86662487496592</v>
+        <v>17.78400011540962</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>18.7450247728093</v>
+        <v>5.86216473117522</v>
       </c>
       <c r="C28">
-        <v>1.211852568920746</v>
+        <v>0.3789847959665624</v>
       </c>
       <c r="D28">
-        <v>10.61551164663048</v>
+        <v>3.31980772138135</v>
       </c>
       <c r="E28">
-        <v>3.319959036860315</v>
+        <v>1.038256658004524</v>
       </c>
       <c r="F28">
-        <v>6.119181160630438</v>
+        <v>1.913662340716318</v>
       </c>
       <c r="G28">
-        <v>16.14277769096715</v>
+        <v>5.048359401501471</v>
       </c>
       <c r="H28">
-        <v>1.027607529729335</v>
+        <v>0.321365519186059</v>
       </c>
       <c r="I28">
-        <v>57.18191440654778</v>
+        <v>17.8826011679315</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>18.55867072536032</v>
+        <v>5.803885900514411</v>
       </c>
       <c r="C29">
-        <v>1.090667312028672</v>
+        <v>0.3410863163699059</v>
       </c>
       <c r="D29">
-        <v>8.829724640655263</v>
+        <v>2.761335394420001</v>
       </c>
       <c r="E29">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F29">
-        <v>6.973661412790544</v>
+        <v>2.180885460365893</v>
       </c>
       <c r="G29">
-        <v>11.05669704860764</v>
+        <v>3.457780411987309</v>
       </c>
       <c r="H29">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I29">
-        <v>50.88837912978919</v>
+        <v>15.91441275628759</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>19.88507306308541</v>
+        <v>6.218694048158978</v>
       </c>
       <c r="C30">
-        <v>1.060370997805653</v>
+        <v>0.3316116964707419</v>
       </c>
       <c r="D30">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="E30">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="F30">
-        <v>6.449947709853703</v>
+        <v>2.017103548322605</v>
       </c>
       <c r="G30">
-        <v>13.37860342881525</v>
+        <v>4.183914298504643</v>
       </c>
       <c r="H30">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I30">
-        <v>57.55564627259042</v>
+        <v>17.99947899501283</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>20.82780530312144</v>
+        <v>6.513516367972468</v>
       </c>
       <c r="C31">
-        <v>1.12096362625169</v>
+        <v>0.3505609362690701</v>
       </c>
       <c r="D31">
-        <v>11.70682592805978</v>
+        <v>3.661096365635507</v>
       </c>
       <c r="E31">
-        <v>3.52116867545791</v>
+        <v>1.101181303944192</v>
       </c>
       <c r="F31">
-        <v>6.257000556140132</v>
+        <v>1.956762843885603</v>
       </c>
       <c r="G31">
-        <v>11.49896493055195</v>
+        <v>3.596091628466801</v>
       </c>
       <c r="H31">
-        <v>0.8653537092457557</v>
+        <v>0.2706235951040497</v>
       </c>
       <c r="I31">
-        <v>55.79808272882865</v>
+        <v>17.44983304127769</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>23.67792602881174</v>
+        <v>7.404839660431855</v>
       </c>
       <c r="C32">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="D32">
-        <v>12.5997194310474</v>
+        <v>3.94033252911618</v>
       </c>
       <c r="E32">
-        <v>5.130845784238669</v>
+        <v>1.604578471461537</v>
       </c>
       <c r="F32">
-        <v>5.981361765120742</v>
+        <v>1.870561837547031</v>
       </c>
       <c r="G32">
-        <v>6.744585199650662</v>
+        <v>2.109246051312258</v>
       </c>
       <c r="H32">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I32">
-        <v>56.11851175049879</v>
+        <v>17.55004137561952</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>25.88128858982616</v>
+        <v>8.093901128833149</v>
       </c>
       <c r="C33">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D33">
-        <v>10.81393242507217</v>
+        <v>3.381860202154833</v>
       </c>
       <c r="E33">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="F33">
-        <v>4.355092898106347</v>
+        <v>1.361975900149451</v>
       </c>
       <c r="G33">
-        <v>5.196647612845593</v>
+        <v>1.625156793634035</v>
       </c>
       <c r="H33">
-        <v>0.378592247795018</v>
+        <v>0.1183978228580217</v>
       </c>
       <c r="I33">
-        <v>54.63622449536393</v>
+        <v>17.08648306220898</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>26.28688269309748</v>
+        <v>8.22074328968314</v>
       </c>
       <c r="C34">
-        <v>0.7877041697984852</v>
+        <v>0.2463401173782654</v>
       </c>
       <c r="D34">
-        <v>8.532093472992724</v>
+        <v>2.668256673259777</v>
       </c>
       <c r="E34">
-        <v>7.847175905306202</v>
+        <v>2.454061191647057</v>
       </c>
       <c r="F34">
-        <v>2.342929723664807</v>
+        <v>0.7327085538778692</v>
       </c>
       <c r="G34">
-        <v>2.76417426215191</v>
+        <v>0.8644451029968273</v>
       </c>
       <c r="H34">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I34">
-        <v>48.72321404749519</v>
+        <v>15.23729685292494</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>16.96918032064842</v>
+        <v>5.306801756642826</v>
       </c>
       <c r="C35">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="D35">
-        <v>5.158940239483971</v>
+        <v>1.613364500110563</v>
       </c>
       <c r="E35">
-        <v>6.438708435123038</v>
+        <v>2.01358867006938</v>
       </c>
       <c r="F35">
-        <v>1.074991284975617</v>
+        <v>0.3361839247204341</v>
       </c>
       <c r="G35">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="H35">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="I35">
-        <v>33.20108002992171</v>
+        <v>10.38303244446253</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>14.62331172334948</v>
+        <v>4.573174123618563</v>
       </c>
       <c r="C36">
-        <v>1.36333414003584</v>
+        <v>0.4263578954623824</v>
       </c>
       <c r="D36">
-        <v>4.266046736496362</v>
+        <v>1.334128336629888</v>
       </c>
       <c r="E36">
-        <v>5.533265061433859</v>
+        <v>1.730427763340873</v>
       </c>
       <c r="F36">
-        <v>1.295502317791129</v>
+        <v>0.4051447297912923</v>
       </c>
       <c r="G36">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="H36">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I36">
-        <v>29.01278532736747</v>
+        <v>9.073219638842978</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>11.1264328329833</v>
+        <v>3.47958900710108</v>
       </c>
       <c r="C37">
-        <v>0.7574078555754664</v>
+        <v>0.2368654974791014</v>
       </c>
       <c r="D37">
-        <v>3.670784401171288</v>
+        <v>1.147970894309439</v>
       </c>
       <c r="E37">
-        <v>4.527216868445885</v>
+        <v>1.415804533642532</v>
       </c>
       <c r="F37">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="G37">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="I37">
-        <v>22.29068973527091</v>
+        <v>6.971006802254063</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>8.133806071008475</v>
+        <v>2.54369955001872</v>
       </c>
       <c r="C38">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="D38">
-        <v>2.976311676625369</v>
+        <v>0.9307872116022475</v>
       </c>
       <c r="E38">
-        <v>2.213306024573543</v>
+        <v>0.6921711053363493</v>
       </c>
       <c r="F38">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="G38">
-        <v>1.437370616318993</v>
+        <v>0.4495114535583501</v>
       </c>
       <c r="H38">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I38">
-        <v>16.51492361063779</v>
+        <v>5.164741252770533</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>5.086369295078079</v>
+        <v>1.590669260389065</v>
       </c>
       <c r="C39">
-        <v>0.2120741995611306</v>
+        <v>0.06632233929414839</v>
       </c>
       <c r="D39">
-        <v>1.289735059870993</v>
+        <v>0.4033411250276407</v>
       </c>
       <c r="E39">
-        <v>2.012096385975949</v>
+        <v>0.6292464593966811</v>
       </c>
       <c r="F39">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="G39">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="H39">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I39">
-        <v>11.25128181038436</v>
+        <v>3.518633248488558</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>3.573612909903994</v>
+        <v>1.117582282083696</v>
       </c>
       <c r="C40">
-        <v>0.4847410275682986</v>
+        <v>0.1515939183866249</v>
       </c>
       <c r="D40">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="E40">
-        <v>1.006048192987974</v>
+        <v>0.3146232296983406</v>
       </c>
       <c r="F40">
-        <v>0.9922996476698008</v>
+        <v>0.3103236228188623</v>
       </c>
       <c r="G40">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="H40">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I40">
-        <v>8.384568140606314</v>
+        <v>2.622120815294682</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.312982588925591</v>
+        <v>0.7233431334958896</v>
       </c>
       <c r="C41">
-        <v>0.7271115413524478</v>
+        <v>0.2273908775799374</v>
       </c>
       <c r="D41">
-        <v>0.2976311676625368</v>
+        <v>0.09307872116022477</v>
       </c>
       <c r="F41">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="G41">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="I41">
-        <v>6.265725564312515</v>
+        <v>1.959491431113803</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>1.490832379591851</v>
+        <v>0.4662306452864501</v>
       </c>
       <c r="C42">
-        <v>0.4847410275682986</v>
+        <v>0.1515939183866249</v>
       </c>
       <c r="D42">
-        <v>0.9921038922084563</v>
+        <v>0.3102624038674159</v>
       </c>
       <c r="F42">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="G42">
-        <v>2.76417426215191</v>
+        <v>0.8644451029968273</v>
       </c>
       <c r="I42">
-        <v>6.228001385355416</v>
+        <v>1.94769388194675</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.677186427040832</v>
+        <v>0.5245094759472565</v>
       </c>
       <c r="C43">
-        <v>0.4241483991222612</v>
+        <v>0.1326446785882968</v>
       </c>
       <c r="D43">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="E43">
-        <v>0.8048385543903798</v>
+        <v>0.2516985837586725</v>
       </c>
       <c r="F43">
-        <v>0.6064053402426559</v>
+        <v>0.1896422139448602</v>
       </c>
       <c r="G43">
-        <v>2.653607291665834</v>
+        <v>0.8298672988769544</v>
       </c>
       <c r="I43">
-        <v>7.059079515449573</v>
+        <v>2.207598414596715</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>2.992626761974817</v>
+        <v>0.9358894570823597</v>
       </c>
       <c r="C44">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="D44">
-        <v>1.984207784416913</v>
+        <v>0.6205248077348318</v>
       </c>
       <c r="E44">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="F44">
-        <v>1.240374559587251</v>
+        <v>0.3879045285235778</v>
       </c>
       <c r="G44">
-        <v>3.427576085068368</v>
+        <v>1.071911927716066</v>
       </c>
       <c r="I44">
-        <v>10.3198712962497</v>
+        <v>3.227351592028648</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>7.202035833763572</v>
+        <v>2.252305396714689</v>
       </c>
       <c r="C45">
-        <v>0.2120741995611306</v>
+        <v>0.06632233929414839</v>
       </c>
       <c r="D45">
-        <v>4.266046736496362</v>
+        <v>1.334128336629888</v>
       </c>
       <c r="E45">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F45">
-        <v>2.205110328155112</v>
+        <v>0.6896080507085829</v>
       </c>
       <c r="G45">
-        <v>4.975513671873439</v>
+        <v>1.556001185394289</v>
       </c>
       <c r="H45">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I45">
-        <v>22.6448080850899</v>
+        <v>7.081750859737634</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>13.69154148610457</v>
+        <v>4.28177997031453</v>
       </c>
       <c r="C46">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="D46">
-        <v>9.1273558083178</v>
+        <v>2.854414115580226</v>
       </c>
       <c r="E46">
-        <v>9.658062652684553</v>
+        <v>3.020383005104069</v>
       </c>
       <c r="F46">
-        <v>3.776251436965631</v>
+        <v>1.180953786838448</v>
       </c>
       <c r="G46">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="H46">
-        <v>0.5949306751064569</v>
+        <v>0.1860537216340341</v>
       </c>
       <c r="I46">
-        <v>45.77532889932315</v>
+        <v>14.31539951981305</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>22.04458761293538</v>
+        <v>6.894042850522436</v>
       </c>
       <c r="C47">
-        <v>0.3332594564532053</v>
+        <v>0.1042208188908046</v>
       </c>
       <c r="D47">
-        <v>7.143148023900884</v>
+        <v>2.233889307845395</v>
       </c>
       <c r="E47">
-        <v>9.557457833385758</v>
+        <v>2.988920682134235</v>
       </c>
       <c r="F47">
-        <v>4.410220656310225</v>
+        <v>1.379216101417166</v>
       </c>
       <c r="G47">
-        <v>10.94613007812157</v>
+        <v>3.423202607867435</v>
       </c>
       <c r="H47">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="I47">
-        <v>54.97564972938561</v>
+        <v>17.1926321156175</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>27.05422288847565</v>
+        <v>8.460714945345284</v>
       </c>
       <c r="C48">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D48">
-        <v>10.4170908681888</v>
+        <v>3.257755240607866</v>
       </c>
       <c r="E48">
-        <v>5.835079519330253</v>
+        <v>1.824814732250376</v>
       </c>
       <c r="F48">
-        <v>5.402520303980027</v>
+        <v>1.689539724236028</v>
       </c>
       <c r="G48">
-        <v>13.37860342881525</v>
+        <v>4.183914298504643</v>
       </c>
       <c r="H48">
-        <v>1.189861350212914</v>
+        <v>0.3721074432680683</v>
       </c>
       <c r="I48">
-        <v>63.94389727190929</v>
+        <v>19.99728802199387</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>19.6767950100542</v>
+        <v>6.153558884479253</v>
       </c>
       <c r="C49">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="D49">
-        <v>14.58392721546431</v>
+        <v>4.560857336851015</v>
       </c>
       <c r="E49">
-        <v>5.835079519330253</v>
+        <v>1.824814732250376</v>
       </c>
       <c r="F49">
-        <v>6.06405340242656</v>
+        <v>1.896422139448602</v>
       </c>
       <c r="G49">
-        <v>17.8012822482583</v>
+        <v>5.567026463299568</v>
       </c>
       <c r="H49">
-        <v>1.676622811663651</v>
+        <v>0.5243332155140963</v>
       </c>
       <c r="I49">
-        <v>66.819316461895</v>
+        <v>20.89652294791031</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>5.423359417964442</v>
+        <v>17.34188841554639</v>
       </c>
       <c r="C2">
-        <v>0.4168832755632184</v>
+        <v>1.333037825812821</v>
       </c>
       <c r="D2">
-        <v>2.357994269392361</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="E2">
-        <v>1.038256658004524</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="F2">
-        <v>2.146405057830464</v>
+        <v>6.863405896382787</v>
       </c>
       <c r="G2">
-        <v>5.497870855059822</v>
+        <v>17.58014830728615</v>
       </c>
       <c r="H2">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I2">
-        <v>17.10065120483687</v>
+        <v>54.68152895143491</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>5.649618407588748</v>
+        <v>18.06538059976007</v>
       </c>
       <c r="C3">
-        <v>0.5116294745548591</v>
+        <v>1.636000968043008</v>
       </c>
       <c r="D3">
-        <v>2.264915548232136</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="E3">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F3">
-        <v>1.99986334705489</v>
+        <v>6.394819951649827</v>
       </c>
       <c r="G3">
-        <v>4.875470380902106</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="H3">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I3">
-        <v>16.63474285515663</v>
+        <v>53.19172715344551</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>5.982150559006291</v>
+        <v>19.12869487049838</v>
       </c>
       <c r="C4">
-        <v>0.4926802347565309</v>
+        <v>1.57540833959697</v>
       </c>
       <c r="D4">
-        <v>2.295941788618877</v>
+        <v>7.341568802342575</v>
       </c>
       <c r="E4">
-        <v>1.069718980974357</v>
+        <v>3.420563856159113</v>
       </c>
       <c r="F4">
-        <v>1.965382944519461</v>
+        <v>6.28456443524207</v>
       </c>
       <c r="G4">
-        <v>4.633425752062993</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="H4">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I4">
-        <v>16.72683782973656</v>
+        <v>53.48621266504696</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>5.923871728345484</v>
+        <v>18.94234082304939</v>
       </c>
       <c r="C5">
-        <v>0.4453071352607106</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="D5">
-        <v>1.923626903977979</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="E5">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F5">
-        <v>2.241226164802893</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="G5">
-        <v>3.181157979028325</v>
+        <v>10.17216128471903</v>
       </c>
       <c r="H5">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I5">
-        <v>15.09917753232129</v>
+        <v>48.28155977726453</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>6.345536209008966</v>
+        <v>20.29066716635674</v>
       </c>
       <c r="C6">
-        <v>0.4358325153615465</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="D6">
-        <v>2.668256673259777</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="E6">
-        <v>1.195568272853694</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="F6">
-        <v>2.068824152125748</v>
+        <v>6.615330984465338</v>
       </c>
       <c r="G6">
-        <v>3.838136257305913</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="H6">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I6">
-        <v>16.77203575093768</v>
+        <v>53.63073882414462</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>6.647214861841377</v>
+        <v>21.25532341197499</v>
       </c>
       <c r="C7">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="D7">
-        <v>2.54415171171281</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="E7">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F7">
-        <v>2.008483447688747</v>
+        <v>6.422383830751765</v>
       </c>
       <c r="G7">
-        <v>3.284891391387944</v>
+        <v>10.50386219617726</v>
       </c>
       <c r="H7">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I7">
-        <v>16.32587641511482</v>
+        <v>52.20408703489286</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>7.55567898684806</v>
+        <v>24.16025415162086</v>
       </c>
       <c r="C8">
-        <v>0.3410863163699059</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="D8">
-        <v>2.730309154033259</v>
+        <v>8.730514251434418</v>
       </c>
       <c r="E8">
-        <v>1.667503117401205</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="F8">
-        <v>1.922282441350174</v>
+        <v>6.146745039732377</v>
       </c>
       <c r="G8">
-        <v>1.936357030712893</v>
+        <v>6.191750347220278</v>
       </c>
       <c r="H8">
-        <v>0.321365519186059</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="I8">
-        <v>16.47458256590156</v>
+        <v>52.67959405460221</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>8.258453121287195</v>
+        <v>26.40746472379975</v>
       </c>
       <c r="C9">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D9">
-        <v>2.357994269392361</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="E9">
-        <v>2.359674222737554</v>
+        <v>7.545361447409807</v>
       </c>
       <c r="F9">
-        <v>1.39645630268488</v>
+        <v>4.465348414514104</v>
       </c>
       <c r="G9">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H9">
-        <v>0.1014838481640186</v>
+        <v>0.3245076409671583</v>
       </c>
       <c r="I9">
-        <v>16.23567131849631</v>
+        <v>51.9156446508439</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>8.388723448646646</v>
+        <v>26.8240208298622</v>
       </c>
       <c r="C10">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D10">
-        <v>1.861574423204495</v>
+        <v>5.952623353250738</v>
       </c>
       <c r="E10">
-        <v>2.516985837586724</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="F10">
-        <v>0.7499487551455836</v>
+        <v>2.398057481868685</v>
       </c>
       <c r="G10">
-        <v>0.7952894947570812</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="H10">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I10">
-        <v>14.68540095999412</v>
+        <v>46.95845603413139</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>5.416503084945527</v>
+        <v>17.31996440996414</v>
       </c>
       <c r="C11">
-        <v>0.5021548546556949</v>
+        <v>1.605704653819989</v>
       </c>
       <c r="D11">
-        <v>1.116944653922697</v>
+        <v>3.571574011950442</v>
       </c>
       <c r="E11">
-        <v>2.076513316009048</v>
+        <v>6.63991807372063</v>
       </c>
       <c r="F11">
-        <v>0.3448040253542914</v>
+        <v>1.102555164077556</v>
       </c>
       <c r="G11">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H11">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="I11">
-        <v>10.11239850370111</v>
+        <v>32.3356932391075</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>4.665734619373961</v>
+        <v>14.91928579870962</v>
       </c>
       <c r="C12">
-        <v>0.5590025740506792</v>
+        <v>1.787482539158101</v>
       </c>
       <c r="D12">
-        <v>0.9307872116022475</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="E12">
-        <v>1.793352409280542</v>
+        <v>5.734474700031455</v>
       </c>
       <c r="F12">
-        <v>0.4137648304251497</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="G12">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H12">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I12">
-        <v>8.932050630612684</v>
+        <v>28.56137928919233</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>3.551580503799724</v>
+        <v>11.35663489159675</v>
       </c>
       <c r="C13">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D13">
-        <v>0.8066822500552815</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="E13">
-        <v>1.447266856612366</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="F13">
-        <v>0.2844633209172904</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="G13">
-        <v>0.3803558453186041</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="I13">
-        <v>6.783011233375681</v>
+        <v>21.68954975415386</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.595122047660608</v>
+        <v>8.298236112875225</v>
       </c>
       <c r="C14">
-        <v>0.3316116964707419</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="D14">
-        <v>0.6515510481215732</v>
+        <v>2.083418173637758</v>
       </c>
       <c r="E14">
-        <v>0.723633428306183</v>
+        <v>2.313910843872341</v>
       </c>
       <c r="F14">
-        <v>0.2844633209172904</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="G14">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H14">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I14">
-        <v>5.018229165608877</v>
+        <v>16.04643239121574</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.624950925483657</v>
+        <v>5.195989322989248</v>
       </c>
       <c r="C15">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D15">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E15">
-        <v>0.6607087823665151</v>
+        <v>2.112701205274746</v>
       </c>
       <c r="F15">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G15">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="H15">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I15">
-        <v>3.4100659065646</v>
+        <v>10.90412378818483</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.141579447649911</v>
+        <v>3.65034692944181</v>
       </c>
       <c r="C16">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D16">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E16">
-        <v>0.3146232296983406</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="F16">
-        <v>0.3189437234527195</v>
+        <v>1.01986352677174</v>
       </c>
       <c r="G16">
-        <v>0.3803558453186041</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="H16">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I16">
-        <v>2.574454655710475</v>
+        <v>8.23214947221255</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.7370557995337262</v>
+        <v>2.356830600090057</v>
       </c>
       <c r="C17">
-        <v>0.2937132168740857</v>
+        <v>0.9391857409135788</v>
       </c>
       <c r="D17">
-        <v>0.06205248077348318</v>
+        <v>0.1984207784416913</v>
       </c>
       <c r="F17">
-        <v>0.2327427171141467</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="G17">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="I17">
-        <v>1.947964688453158</v>
+        <v>6.228867323947053</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.4765151448148277</v>
+        <v>1.5237183879652</v>
       </c>
       <c r="C18">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="D18">
-        <v>0.2171836827071911</v>
+        <v>0.6944727245459195</v>
       </c>
       <c r="F18">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G18">
-        <v>0.7952894947570812</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="I18">
-        <v>1.843117151570976</v>
+        <v>5.893603856209168</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.534793975475634</v>
+        <v>1.710072435414181</v>
       </c>
       <c r="C19">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D19">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E19">
-        <v>0.2516985837586725</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="F19">
-        <v>0.1982623145787175</v>
+        <v>0.6339692193445948</v>
       </c>
       <c r="G19">
-        <v>0.7607116906372081</v>
+        <v>2.432473350693681</v>
       </c>
       <c r="I19">
-        <v>2.102167164955635</v>
+        <v>6.721949551182245</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.9564584561391145</v>
+        <v>3.058398778721517</v>
       </c>
       <c r="C20">
-        <v>0.1136954387899687</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="D20">
-        <v>0.4343673654143823</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="E20">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F20">
-        <v>0.3965246291574351</v>
+        <v>1.26793843868919</v>
       </c>
       <c r="G20">
-        <v>0.9681785153564464</v>
+        <v>3.095875173610139</v>
       </c>
       <c r="I20">
-        <v>2.995073696736683</v>
+        <v>9.577132887984099</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>2.300299727847118</v>
+        <v>7.355503872839206</v>
       </c>
       <c r="C21">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D21">
-        <v>0.9307872116022475</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="E21">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F21">
-        <v>0.7068482519762973</v>
+        <v>2.260238086358991</v>
       </c>
       <c r="G21">
-        <v>1.417689968914797</v>
+        <v>4.533245789929132</v>
       </c>
       <c r="H21">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I21">
-        <v>6.655744613398805</v>
+        <v>21.28259838829895</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>4.370912299560471</v>
+        <v>13.9765535586736</v>
       </c>
       <c r="C22">
-        <v>0.1231700586891327</v>
+        <v>0.3938520848992426</v>
       </c>
       <c r="D22">
-        <v>1.985679384751462</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="E22">
-        <v>3.114769974013572</v>
+        <v>9.959877110580949</v>
       </c>
       <c r="F22">
-        <v>1.215434189373877</v>
+        <v>3.886506953373386</v>
       </c>
       <c r="G22">
-        <v>2.489601896630863</v>
+        <v>7.960821874997503</v>
       </c>
       <c r="H22">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I22">
-        <v>13.46870754995941</v>
+        <v>43.0679225609374</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>7.034597677410261</v>
+        <v>22.49402972737116</v>
       </c>
       <c r="C23">
-        <v>0.1326446785882968</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="D23">
-        <v>1.55131201933708</v>
+        <v>4.960519461042282</v>
       </c>
       <c r="E23">
-        <v>3.083307651043738</v>
+        <v>9.859272291282149</v>
       </c>
       <c r="F23">
-        <v>1.413696503952595</v>
+        <v>4.520476172717982</v>
       </c>
       <c r="G23">
-        <v>3.146580174908451</v>
+        <v>10.06159431423296</v>
       </c>
       <c r="H23">
-        <v>0.1522257722460279</v>
+        <v>0.4867614614507375</v>
       </c>
       <c r="I23">
-        <v>16.51436447748645</v>
+        <v>52.80680182721953</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>8.635551437327704</v>
+        <v>27.61328503082256</v>
       </c>
       <c r="C24">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D24">
-        <v>2.264915548232136</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="E24">
-        <v>1.887739378190043</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="F24">
-        <v>1.732640227405314</v>
+        <v>5.54033969948972</v>
       </c>
       <c r="G24">
-        <v>3.838136257305913</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="H24">
-        <v>0.3382794938800621</v>
+        <v>1.081692136557195</v>
       </c>
       <c r="I24">
-        <v>18.97202631941693</v>
+        <v>60.66549127434108</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>6.280401045329238</v>
+        <v>20.0823891133255</v>
       </c>
       <c r="C25">
-        <v>0.4832056148573668</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="D25">
-        <v>3.164676519447643</v>
+        <v>10.11945970052625</v>
       </c>
       <c r="E25">
-        <v>1.887739378190043</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="F25">
-        <v>1.948142743251746</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="G25">
-        <v>5.117515009741216</v>
+        <v>16.36391163193931</v>
       </c>
       <c r="H25">
-        <v>0.4735912914320868</v>
+        <v>1.514368991180072</v>
       </c>
       <c r="I25">
-        <v>19.35527160224934</v>
+        <v>61.89096729731114</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>5.313658089661748</v>
+        <v>16.99110432623065</v>
       </c>
       <c r="C26">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D26">
-        <v>3.381860202154833</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="E26">
-        <v>1.00679433503469</v>
+        <v>3.219354217561519</v>
       </c>
       <c r="F26">
-        <v>2.09468445402732</v>
+        <v>6.698022621771155</v>
       </c>
       <c r="G26">
-        <v>5.981960112738046</v>
+        <v>19.12808589409122</v>
       </c>
       <c r="H26">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I26">
-        <v>18.33788991590426</v>
+        <v>58.63775866389939</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>5.536488912776594</v>
+        <v>17.70363450765322</v>
       </c>
       <c r="C27">
-        <v>0.3979340357648903</v>
+        <v>1.272445197366784</v>
       </c>
       <c r="D27">
-        <v>3.257755240607866</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="E27">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F27">
-        <v>1.948142743251746</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="G27">
-        <v>5.324981834460457</v>
+        <v>17.02731345485577</v>
       </c>
       <c r="H27">
-        <v>0.1860537216340341</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="I27">
-        <v>17.78400011540962</v>
+        <v>56.86662487496592</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>5.86216473117522</v>
+        <v>18.7450247728093</v>
       </c>
       <c r="C28">
-        <v>0.3789847959665624</v>
+        <v>1.211852568920746</v>
       </c>
       <c r="D28">
-        <v>3.31980772138135</v>
+        <v>10.61551164663048</v>
       </c>
       <c r="E28">
-        <v>1.038256658004524</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="F28">
-        <v>1.913662340716318</v>
+        <v>6.119181160630438</v>
       </c>
       <c r="G28">
-        <v>5.048359401501471</v>
+        <v>16.14277769096715</v>
       </c>
       <c r="H28">
-        <v>0.321365519186059</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="I28">
-        <v>17.8826011679315</v>
+        <v>57.18191440654778</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>5.803885900514411</v>
+        <v>18.55867072536032</v>
       </c>
       <c r="C29">
-        <v>0.3410863163699059</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="D29">
-        <v>2.761335394420001</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="E29">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F29">
-        <v>2.180885460365893</v>
+        <v>6.973661412790544</v>
       </c>
       <c r="G29">
-        <v>3.457780411987309</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="H29">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I29">
-        <v>15.91441275628759</v>
+        <v>50.88837912978919</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>6.218694048158978</v>
+        <v>19.88507306308541</v>
       </c>
       <c r="C30">
-        <v>0.3316116964707419</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="D30">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E30">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F30">
-        <v>2.017103548322605</v>
+        <v>6.449947709853703</v>
       </c>
       <c r="G30">
-        <v>4.183914298504643</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="H30">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I30">
-        <v>17.99947899501283</v>
+        <v>57.55564627259042</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>6.513516367972468</v>
+        <v>20.82780530312144</v>
       </c>
       <c r="C31">
-        <v>0.3505609362690701</v>
+        <v>1.12096362625169</v>
       </c>
       <c r="D31">
-        <v>3.661096365635507</v>
+        <v>11.70682592805978</v>
       </c>
       <c r="E31">
-        <v>1.101181303944192</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="F31">
-        <v>1.956762843885603</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="G31">
-        <v>3.596091628466801</v>
+        <v>11.49896493055195</v>
       </c>
       <c r="H31">
-        <v>0.2706235951040497</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="I31">
-        <v>17.44983304127769</v>
+        <v>55.79808272882865</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>7.404839660431855</v>
+        <v>23.67792602881174</v>
       </c>
       <c r="C32">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D32">
-        <v>3.94033252911618</v>
+        <v>12.5997194310474</v>
       </c>
       <c r="E32">
-        <v>1.604578471461537</v>
+        <v>5.130845784238669</v>
       </c>
       <c r="F32">
-        <v>1.870561837547031</v>
+        <v>5.981361765120742</v>
       </c>
       <c r="G32">
-        <v>2.109246051312258</v>
+        <v>6.744585199650662</v>
       </c>
       <c r="H32">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I32">
-        <v>17.55004137561952</v>
+        <v>56.11851175049879</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>8.093901128833149</v>
+        <v>25.88128858982616</v>
       </c>
       <c r="C33">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D33">
-        <v>3.381860202154833</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="E33">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F33">
-        <v>1.361975900149451</v>
+        <v>4.355092898106347</v>
       </c>
       <c r="G33">
-        <v>1.625156793634035</v>
+        <v>5.196647612845593</v>
       </c>
       <c r="H33">
-        <v>0.1183978228580217</v>
+        <v>0.378592247795018</v>
       </c>
       <c r="I33">
-        <v>17.08648306220898</v>
+        <v>54.63622449536393</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>8.22074328968314</v>
+        <v>26.28688269309748</v>
       </c>
       <c r="C34">
-        <v>0.2463401173782654</v>
+        <v>0.7877041697984852</v>
       </c>
       <c r="D34">
-        <v>2.668256673259777</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="E34">
-        <v>2.454061191647057</v>
+        <v>7.847175905306202</v>
       </c>
       <c r="F34">
-        <v>0.7327085538778692</v>
+        <v>2.342929723664807</v>
       </c>
       <c r="G34">
-        <v>0.8644451029968273</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="H34">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I34">
-        <v>15.23729685292494</v>
+        <v>48.72321404749519</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>5.306801756642826</v>
+        <v>16.96918032064842</v>
       </c>
       <c r="C35">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D35">
-        <v>1.613364500110563</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="E35">
-        <v>2.01358867006938</v>
+        <v>6.438708435123038</v>
       </c>
       <c r="F35">
-        <v>0.3361839247204341</v>
+        <v>1.074991284975617</v>
       </c>
       <c r="G35">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H35">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="I35">
-        <v>10.38303244446253</v>
+        <v>33.20108002992171</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>4.573174123618563</v>
+        <v>14.62331172334948</v>
       </c>
       <c r="C36">
-        <v>0.4263578954623824</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="D36">
-        <v>1.334128336629888</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="E36">
-        <v>1.730427763340873</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="F36">
-        <v>0.4051447297912923</v>
+        <v>1.295502317791129</v>
       </c>
       <c r="G36">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="H36">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I36">
-        <v>9.073219638842978</v>
+        <v>29.01278532736747</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>3.47958900710108</v>
+        <v>11.1264328329833</v>
       </c>
       <c r="C37">
-        <v>0.2368654974791014</v>
+        <v>0.7574078555754664</v>
       </c>
       <c r="D37">
-        <v>1.147970894309439</v>
+        <v>3.670784401171288</v>
       </c>
       <c r="E37">
-        <v>1.415804533642532</v>
+        <v>4.527216868445885</v>
       </c>
       <c r="F37">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G37">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="I37">
-        <v>6.971006802254063</v>
+        <v>22.29068973527091</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>2.54369955001872</v>
+        <v>8.133806071008475</v>
       </c>
       <c r="C38">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D38">
-        <v>0.9307872116022475</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="E38">
-        <v>0.6921711053363493</v>
+        <v>2.213306024573543</v>
       </c>
       <c r="F38">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G38">
-        <v>0.4495114535583501</v>
+        <v>1.437370616318993</v>
       </c>
       <c r="H38">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I38">
-        <v>5.164741252770533</v>
+        <v>16.51492361063779</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.590669260389065</v>
+        <v>5.086369295078079</v>
       </c>
       <c r="C39">
-        <v>0.06632233929414839</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="D39">
-        <v>0.4033411250276407</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="E39">
-        <v>0.6292464593966811</v>
+        <v>2.012096385975949</v>
       </c>
       <c r="F39">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G39">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="H39">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I39">
-        <v>3.518633248488558</v>
+        <v>11.25128181038436</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.117582282083696</v>
+        <v>3.573612909903994</v>
       </c>
       <c r="C40">
-        <v>0.1515939183866249</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="D40">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E40">
-        <v>0.3146232296983406</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="F40">
-        <v>0.3103236228188623</v>
+        <v>0.9922996476698008</v>
       </c>
       <c r="G40">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="H40">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I40">
-        <v>2.622120815294682</v>
+        <v>8.384568140606314</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.7233431334958896</v>
+        <v>2.312982588925591</v>
       </c>
       <c r="C41">
-        <v>0.2273908775799374</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="D41">
-        <v>0.09307872116022477</v>
+        <v>0.2976311676625368</v>
       </c>
       <c r="F41">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G41">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="I41">
-        <v>1.959491431113803</v>
+        <v>6.265725564312515</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.4662306452864501</v>
+        <v>1.490832379591851</v>
       </c>
       <c r="C42">
-        <v>0.1515939183866249</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="D42">
-        <v>0.3102624038674159</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="F42">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G42">
-        <v>0.8644451029968273</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="I42">
-        <v>1.94769388194675</v>
+        <v>6.228001385355416</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.5245094759472565</v>
+        <v>1.677186427040832</v>
       </c>
       <c r="C43">
-        <v>0.1326446785882968</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="D43">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E43">
-        <v>0.2516985837586725</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="F43">
-        <v>0.1896422139448602</v>
+        <v>0.6064053402426559</v>
       </c>
       <c r="G43">
-        <v>0.8298672988769544</v>
+        <v>2.653607291665834</v>
       </c>
       <c r="I43">
-        <v>2.207598414596715</v>
+        <v>7.059079515449573</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.9358894570823597</v>
+        <v>2.992626761974817</v>
       </c>
       <c r="C44">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D44">
-        <v>0.6205248077348318</v>
+        <v>1.984207784416913</v>
       </c>
       <c r="E44">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F44">
-        <v>0.3879045285235778</v>
+        <v>1.240374559587251</v>
       </c>
       <c r="G44">
-        <v>1.071911927716066</v>
+        <v>3.427576085068368</v>
       </c>
       <c r="I44">
-        <v>3.227351592028648</v>
+        <v>10.3198712962497</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>2.252305396714689</v>
+        <v>7.202035833763572</v>
       </c>
       <c r="C45">
-        <v>0.06632233929414839</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="D45">
-        <v>1.334128336629888</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="E45">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F45">
-        <v>0.6896080507085829</v>
+        <v>2.205110328155112</v>
       </c>
       <c r="G45">
-        <v>1.556001185394289</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="H45">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I45">
-        <v>7.081750859737634</v>
+        <v>22.6448080850899</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>4.28177997031453</v>
+        <v>13.69154148610457</v>
       </c>
       <c r="C46">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D46">
-        <v>2.854414115580226</v>
+        <v>9.1273558083178</v>
       </c>
       <c r="E46">
-        <v>3.020383005104069</v>
+        <v>9.658062652684553</v>
       </c>
       <c r="F46">
-        <v>1.180953786838448</v>
+        <v>3.776251436965631</v>
       </c>
       <c r="G46">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="H46">
-        <v>0.1860537216340341</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="I46">
-        <v>14.31539951981305</v>
+        <v>45.77532889932315</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>6.894042850522436</v>
+        <v>22.04458761293538</v>
       </c>
       <c r="C47">
-        <v>0.1042208188908046</v>
+        <v>0.3332594564532053</v>
       </c>
       <c r="D47">
-        <v>2.233889307845395</v>
+        <v>7.143148023900884</v>
       </c>
       <c r="E47">
-        <v>2.988920682134235</v>
+        <v>9.557457833385758</v>
       </c>
       <c r="F47">
-        <v>1.379216101417166</v>
+        <v>4.410220656310225</v>
       </c>
       <c r="G47">
-        <v>3.423202607867435</v>
+        <v>10.94613007812157</v>
       </c>
       <c r="H47">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I47">
-        <v>17.1926321156175</v>
+        <v>54.97564972938561</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>8.460714945345284</v>
+        <v>27.05422288847565</v>
       </c>
       <c r="C48">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D48">
-        <v>3.257755240607866</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="E48">
-        <v>1.824814732250376</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="F48">
-        <v>1.689539724236028</v>
+        <v>5.402520303980027</v>
       </c>
       <c r="G48">
-        <v>4.183914298504643</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="H48">
-        <v>0.3721074432680683</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="I48">
-        <v>19.99728802199387</v>
+        <v>63.94389727190929</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>6.153558884479253</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="C49">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D49">
-        <v>4.560857336851015</v>
+        <v>14.58392721546431</v>
       </c>
       <c r="E49">
-        <v>1.824814732250376</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="F49">
-        <v>1.896422139448602</v>
+        <v>6.06405340242656</v>
       </c>
       <c r="G49">
-        <v>5.567026463299568</v>
+        <v>17.8012822482583</v>
       </c>
       <c r="H49">
-        <v>0.5243332155140963</v>
+        <v>1.676622811663651</v>
       </c>
       <c r="I49">
-        <v>20.89652294791031</v>
+        <v>66.819316461895</v>
       </c>
     </row>
   </sheetData>
